--- a/Agenda_Minutes_Timesheet/Time sheet/Timetsheet - On Ki Ng.xlsx
+++ b/Agenda_Minutes_Timesheet/Time sheet/Timetsheet - On Ki Ng.xlsx
@@ -1,23 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChromeDownloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Docs\MCI project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C6932A-D2DB-4023-825E-4E5A2A9A79F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4634C1AC-EAB0-4A88-81D3-5232A4E54896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="week 7" sheetId="6" r:id="rId1"/>
+    <sheet name="MidBreak" sheetId="7" r:id="rId2"/>
+    <sheet name="week 6" sheetId="5" r:id="rId3"/>
+    <sheet name="week 5" sheetId="4" r:id="rId4"/>
+    <sheet name="week 4" sheetId="3" r:id="rId5"/>
+    <sheet name="week 3" sheetId="2" r:id="rId6"/>
+    <sheet name="week 2" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet2!$A$1:$H$14</definedName>
-    <definedName name="Week_Start">Sheet2!$C$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">MidBreak!$A$1:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'week 2'!$A$1:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'week 3'!$A$1:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'week 4'!$A$1:$H$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'week 5'!$A$1:$H$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'week 6'!$A$1:$H$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'week 7'!$A$1:$H$14</definedName>
+    <definedName name="Week_Start" localSheetId="1">MidBreak!$C$4</definedName>
+    <definedName name="Week_Start" localSheetId="5">'week 3'!$C$4</definedName>
+    <definedName name="Week_Start" localSheetId="4">'week 4'!$C$4</definedName>
+    <definedName name="Week_Start" localSheetId="3">'week 5'!$C$4</definedName>
+    <definedName name="Week_Start" localSheetId="2">'week 6'!$C$4</definedName>
+    <definedName name="Week_Start" localSheetId="0">'week 7'!$C$4</definedName>
+    <definedName name="Week_Start">'week 2'!$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="115">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -179,16 +197,308 @@
   <si>
     <t>Continue to watch Ionic tutorial video on Youtube</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn the Ionic Framework with Angular for mobile app development</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting with client in Zoom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discuss the protype design and prioritise major features</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>To change the prototype design as per clients request, including the layout of explore page and home page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekly planing for the project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">prepare for pitch presentation, discussed and adjust the prototype to satisfied clients' requirements </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust the pitch slide</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepare for pitch presentation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changed the content of pitch slide as per internal group discussion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare for week 4 client meeting and pitch presentation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare for week 4 agenda, adjust pitch slide</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunday</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discuss the protype design and pitch presentation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We adjusted the pitch slide and remove the parts that clients consider as not important</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">prepare for pitch presentation, discussed and adjust the slide to satisfied clients' requirements </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare the minutes on week 4 client meeting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A wrap up of clients meeting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>summarize the ideas and comments from clients</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify the pitch slide</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify the feasibility part, mostly focus on milestone, cooperation with client's lab, and techlonogy stack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare for week 5 client meeting, business case, milestone and pitch presentation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare for week 5 agenda, work on business case and milestone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writing draft of speech and recording the pitch video</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part of pitch presentation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Written form of pitch drafted and video recorded</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combining all team member's pitch video</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare for the upload of pitch presentation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>All team member's video combined with balanced volume</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group internal meeting in Uni</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharing learning outcome on Ionic and Angular, budiling App as draft</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Built landing page, draft of home page, and empty pages for others</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group internal meeting</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write business case and milesteon 1 plan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amended the business case and milestone 1 plan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finalized and upload business case and milestone plan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finalized, proofread, formatted and page adjusted the business case and milestone plan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finalized business case and draft output as PDF file and  submitted</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saturday</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thursday</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staring milestone  1 development </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Meeting in campus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developing demo as milestone 1 planned</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worked on milestone demo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn the CSS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Help plan, organise and track project development process </t>
+  </si>
+  <si>
+    <t>Adjust project scope according to clients' requirements</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milestone 1 development</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>admended the CSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>working on Home page</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Learn Django and Firebase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discuss team member's developing progress</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare for milestone 1 report</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare for milestone 1 report and discuss team member's developing progress</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writing the milestone 1 report</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare for milestone 1 report after discuss team member's developing progress</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drafted achieved output and reflection</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn the CSS language for developing our App</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>read CSS tutorial on website</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worked on home page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designing graphic elements for the app</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elements used for developing the Home page</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designed bulbbles image for home page</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan, organise and track project development process </t>
+  </si>
+  <si>
+    <t>Adjust our plan base on clients' comments</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>App development</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>work on front end of strageies page</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Meeting + Team Meeting</t>
+  </si>
+  <si>
+    <t>Present our progress and work on milestone 1 report after client's meeting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>working on strageies page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MidBreak</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-409]h:mm\ am/pm;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,6 +533,13 @@
       <sz val="8"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -324,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,9 +656,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,29 +676,8 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -400,6 +693,57 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,14 +1084,3760 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB3235D-FDBE-45D6-8DAE-08D8B56DF563}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AW13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="40.875" customWidth="1"/>
+    <col min="15" max="49" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:49" ht="21" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="33">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="19">
+        <v>44312</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E6" s="30">
+        <v>3</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+    </row>
+    <row r="7" spans="1:49" s="17" customFormat="1" ht="33">
+      <c r="A7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="19">
+        <v>44313</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+    </row>
+    <row r="8" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44314</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="33">
+        <v>4</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+    </row>
+    <row r="9" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44315</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E9" s="30">
+        <v>4</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+    </row>
+    <row r="10" spans="1:49" s="17" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44316</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E10" s="30">
+        <v>2</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+    </row>
+    <row r="11" spans="1:49" s="17" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44317</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+    </row>
+    <row r="12" spans="1:49" s="17" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44318</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E12" s="30">
+        <v>4</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+    </row>
+    <row r="13" spans="1:49" ht="17.25" thickBot="1">
+      <c r="D13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7">
+        <f>SUM(E6:E12)</f>
+        <v>21.5</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{CF657D3B-7701-44E5-B142-D3DC5277B35B}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA898757-7A68-452A-ABEF-6A92842DAFDA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AW14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="40.875" customWidth="1"/>
+    <col min="15" max="49" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:49" ht="21" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="33">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" s="35" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="19">
+        <v>44301</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E6" s="30">
+        <v>4</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="26"/>
+    </row>
+    <row r="7" spans="1:49" s="35" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19">
+        <v>44303</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="26"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="26"/>
+    </row>
+    <row r="8" spans="1:49" s="35" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44304</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E8" s="30">
+        <v>3</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="26"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="26"/>
+      <c r="AV8" s="26"/>
+      <c r="AW8" s="26"/>
+    </row>
+    <row r="9" spans="1:49" s="35" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44305</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+    </row>
+    <row r="10" spans="1:49" s="35" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44307</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E10" s="30">
+        <v>4</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+    </row>
+    <row r="11" spans="1:49" s="35" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44308</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26"/>
+    </row>
+    <row r="12" spans="1:49" s="35" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44308</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0.875</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+    </row>
+    <row r="13" spans="1:49" s="35" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
+      <c r="A13" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="19">
+        <v>44309</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E13" s="14">
+        <v>4</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+    </row>
+    <row r="14" spans="1:49" ht="17.25" thickBot="1">
+      <c r="D14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7">
+        <f>SUM(E6:E13)</f>
+        <v>26</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D13" xr:uid="{B7672603-1A3F-40EE-B953-C24E1E4B0F70}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEDF27F-0A30-417E-9F20-EEE03462ABE7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AW13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="40.875" customWidth="1"/>
+    <col min="15" max="49" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:49" ht="21" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="33">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="19">
+        <v>44291</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E6" s="30">
+        <v>4</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+    </row>
+    <row r="7" spans="1:49" s="17" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="19">
+        <v>44293</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="30">
+        <v>3</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+    </row>
+    <row r="8" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44294</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E8" s="33">
+        <v>4</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+    </row>
+    <row r="9" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44295</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E9" s="30">
+        <v>3</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+    </row>
+    <row r="10" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44296</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+    </row>
+    <row r="11" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44296</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E11" s="30">
+        <v>5</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+    </row>
+    <row r="12" spans="1:49" s="17" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44298</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.9375</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+    </row>
+    <row r="13" spans="1:49" ht="17.25" thickBot="1">
+      <c r="D13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7">
+        <f>SUM(E6:E12)</f>
+        <v>24</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{8B922486-EA82-4102-942E-7421B91566B6}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C47D6-6A83-4AEA-AAC7-38C4E717A708}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AW13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="40.875" customWidth="1"/>
+    <col min="15" max="49" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:49" ht="21" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="33">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="28">
+        <v>44284</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="E6" s="30">
+        <v>4</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+    </row>
+    <row r="7" spans="1:49" s="17" customFormat="1" ht="33">
+      <c r="A7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="28">
+        <v>44284</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E7" s="30">
+        <v>4</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+    </row>
+    <row r="8" spans="1:49" s="17" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="28">
+        <v>44285</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="D8" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="30">
+        <v>3</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+    </row>
+    <row r="9" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="28">
+        <v>44286</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E9" s="33">
+        <v>4</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+    </row>
+    <row r="10" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="28">
+        <v>44287</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+    </row>
+    <row r="11" spans="1:49" s="17" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="28">
+        <v>44289</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E11" s="30">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+    </row>
+    <row r="12" spans="1:49" s="17" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44290</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.9375</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+    </row>
+    <row r="13" spans="1:49" ht="17.25" thickBot="1">
+      <c r="D13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7">
+        <f>SUM(E6:E12)</f>
+        <v>22</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{2B2F37B9-17D3-42EF-9B0B-C25F0E1988A4}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03993AF-AE34-4047-B9AB-D87434C0EC29}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AW15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="40.875" customWidth="1"/>
+    <col min="15" max="49" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:49" ht="21" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="33">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="19">
+        <v>44277</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+    </row>
+    <row r="7" spans="1:49" s="17" customFormat="1" ht="33">
+      <c r="A7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="19">
+        <v>44278</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+    </row>
+    <row r="8" spans="1:49" s="17" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44278</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+    </row>
+    <row r="9" spans="1:49" s="17" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44278</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+    </row>
+    <row r="10" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44279</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.875</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+    </row>
+    <row r="11" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44280</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+    </row>
+    <row r="12" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44281</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+    </row>
+    <row r="13" spans="1:49" s="17" customFormat="1" ht="78.75" customHeight="1" thickBot="1">
+      <c r="A13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="19">
+        <v>44282</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+    </row>
+    <row r="14" spans="1:49" s="17" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7">
+        <f>SUM(E6:E13)</f>
+        <v>20.75</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+    </row>
+    <row r="15" spans="1:49">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D13" xr:uid="{FE178257-6AF6-49E8-AA90-BDF81824FCDD}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF76B0BD-8392-4815-81B0-12338690F904}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AW14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="40.875" customWidth="1"/>
+    <col min="15" max="49" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:49" ht="21" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="33">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="19">
+        <v>44270</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+    </row>
+    <row r="7" spans="1:49" s="17" customFormat="1" ht="49.5">
+      <c r="A7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="19">
+        <v>44271</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+    </row>
+    <row r="8" spans="1:49" s="17" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44271</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+    </row>
+    <row r="9" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44272</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+    </row>
+    <row r="10" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44273</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+    </row>
+    <row r="11" spans="1:49" s="17" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44274</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+    </row>
+    <row r="12" spans="1:49" s="17" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44275</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+    </row>
+    <row r="13" spans="1:49" s="17" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="19">
+        <v>44276</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+    </row>
+    <row r="14" spans="1:49" ht="17.25" thickBot="1">
+      <c r="D14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7">
+        <f>SUM(E6:E13)</f>
+        <v>20.5</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D13" xr:uid="{FA5F2673-B4AB-406C-8A91-CD9C98413B27}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AW14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -763,16 +4853,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="21" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1">
       <c r="A3" s="2" t="s">
@@ -826,485 +4916,552 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:49" s="12" customFormat="1" ht="66" customHeight="1">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:49" s="11" customFormat="1" ht="66" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="19">
         <v>44263</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-    </row>
-    <row r="7" spans="1:49" s="12" customFormat="1" ht="99">
-      <c r="A7" s="13" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+    </row>
+    <row r="7" spans="1:49" s="11" customFormat="1" ht="99">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="19">
         <v>44264</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>0.75</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>1</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-    </row>
-    <row r="8" spans="1:49" s="12" customFormat="1" ht="93.75" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+    </row>
+    <row r="8" spans="1:49" s="17" customFormat="1" ht="33">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44264</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+    </row>
+    <row r="9" spans="1:49" s="11" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B9" s="19">
         <v>44265</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C9" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-    </row>
-    <row r="9" spans="1:49" s="12" customFormat="1" ht="66" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+    </row>
+    <row r="10" spans="1:49" s="11" customFormat="1" ht="66" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B10" s="19">
         <v>44266</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C10" s="13">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
-      <c r="AU9" s="11"/>
-      <c r="AV9" s="11"/>
-      <c r="AW9" s="11"/>
-    </row>
-    <row r="10" spans="1:49" s="25" customFormat="1" ht="66" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="14">
+      <c r="I10" s="16"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+    </row>
+    <row r="11" spans="1:49" s="17" customFormat="1" ht="66" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="9">
         <v>2</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="24"/>
-    </row>
-    <row r="11" spans="1:49" s="12" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+    </row>
+    <row r="12" spans="1:49" s="11" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B12" s="19">
         <v>44267</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C12" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11"/>
-    </row>
-    <row r="12" spans="1:49" s="12" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A12" s="13" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+    </row>
+    <row r="13" spans="1:49" s="11" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B13" s="19">
         <v>44268</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C13" s="13">
         <v>0.625</v>
       </c>
-      <c r="D12" s="14">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="D13" s="13">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-    </row>
-    <row r="13" spans="1:49" ht="17.25" thickBot="1">
-      <c r="D13" s="6" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+    </row>
+    <row r="14" spans="1:49" ht="17.25" thickBot="1">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="8">
-        <f>SUM(E6:E12)</f>
-        <v>12</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="E14" s="7">
+        <f>SUM(E6:E13)</f>
+        <v>20</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1312,7 +5469,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D13" xr:uid="{650E7D89-8816-4499-A6E9-82ADA77985DB}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
